--- a/CarePoint/Testing/Testing.xlsx
+++ b/CarePoint/Testing/Testing.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp TR" sheetId="1" r:id="rId1"/>
     <sheet name="SignUp TC" sheetId="2" r:id="rId2"/>
     <sheet name="AddPrescription TR" sheetId="3" r:id="rId3"/>
     <sheet name="AddPrescription TC" sheetId="4" r:id="rId4"/>
+    <sheet name="SOS TR" sheetId="5" r:id="rId5"/>
+    <sheet name="SOS TC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="224">
   <si>
     <t>Characteristcs</t>
   </si>
@@ -655,6 +657,45 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Description Length</t>
+  </si>
+  <si>
+    <t>Number of Options</t>
+  </si>
+  <si>
+    <t>A1 B1</t>
+  </si>
+  <si>
+    <t>A2 B2</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Description Error</t>
+  </si>
+  <si>
+    <t>IsHospital</t>
+  </si>
+  <si>
+    <t>IsFamily</t>
+  </si>
+  <si>
+    <t>IsFriends</t>
+  </si>
+  <si>
+    <t>Options Error</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please fill What's Wrong field</t>
+  </si>
+  <si>
+    <t>select at least one option</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1170,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1217,6 +1258,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1557,10 +1601,10 @@
       <c r="G1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -1581,10 +1625,10 @@
       <c r="G2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1605,10 +1649,10 @@
       <c r="G3" s="24">
         <v>1</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="41"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -1629,10 +1673,10 @@
       <c r="G4" s="25">
         <v>2</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1653,10 +1697,10 @@
       <c r="G5" s="25">
         <v>3</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="37"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -1673,10 +1717,10 @@
       <c r="G6" s="26">
         <v>4</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="37"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1693,10 +1737,10 @@
       <c r="G7" s="25">
         <v>5</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="37"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -2602,10 +2646,10 @@
       <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -2623,10 +2667,10 @@
       <c r="F2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2644,10 +2688,10 @@
       <c r="F3" s="24">
         <v>1</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -2663,10 +2707,10 @@
       <c r="F4" s="25">
         <v>2</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -2684,10 +2728,10 @@
       <c r="F5" s="25">
         <v>3</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -2854,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection sqref="A1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,4 +3082,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="35">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="25">
+        <v>2</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="16" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CarePoint/Testing/Testing.xlsx
+++ b/CarePoint/Testing/Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp TR" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,10 @@
     <sheet name="AddPrescription TC" sheetId="4" r:id="rId4"/>
     <sheet name="SOS TR" sheetId="5" r:id="rId5"/>
     <sheet name="SOS TC" sheetId="6" r:id="rId6"/>
+    <sheet name="Add Service TR" sheetId="7" r:id="rId7"/>
+    <sheet name="Add Service TC" sheetId="8" r:id="rId8"/>
+    <sheet name="Add CareUnit TR" sheetId="9" r:id="rId9"/>
+    <sheet name="Add CareUnit TC" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="264">
   <si>
     <t>Characteristcs</t>
   </si>
@@ -641,9 +645,6 @@
     <t>abilify 10mg tablet</t>
   </si>
   <si>
-    <t>Warning: please make sure that all drugs you typed in step 3 are correctly spelled.</t>
-  </si>
-  <si>
     <t>Remarks Length</t>
   </si>
   <si>
@@ -696,6 +697,129 @@
   </si>
   <si>
     <t>select at least one option</t>
+  </si>
+  <si>
+    <t>Error: please make sure that all drugs you typed in step 3 are correctly spelled.</t>
+  </si>
+  <si>
+    <t>Test Case 6</t>
+  </si>
+  <si>
+    <t>Test Case 7</t>
+  </si>
+  <si>
+    <t>Test Case 8</t>
+  </si>
+  <si>
+    <t>Test Case 9</t>
+  </si>
+  <si>
+    <t>Test Case 10</t>
+  </si>
+  <si>
+    <t>Name Length</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>CategoryId</t>
+  </si>
+  <si>
+    <t>From 1 to 4</t>
+  </si>
+  <si>
+    <t>A1 B1 C1 D1</t>
+  </si>
+  <si>
+    <t>A2 B2 C2 D2</t>
+  </si>
+  <si>
+    <t>A2 B3 C2 D2</t>
+  </si>
+  <si>
+    <t>Test Case 11</t>
+  </si>
+  <si>
+    <t>Test Case 12</t>
+  </si>
+  <si>
+    <t>Test Case 13</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>NameError</t>
+  </si>
+  <si>
+    <t>CategoryIdError</t>
+  </si>
+  <si>
+    <t>CostError</t>
+  </si>
+  <si>
+    <t>The Name field is required.</t>
+  </si>
+  <si>
+    <t>The Category field is required.</t>
+  </si>
+  <si>
+    <t>The Cost field is required.</t>
+  </si>
+  <si>
+    <t>Cost must be greater than or equal 1</t>
+  </si>
+  <si>
+    <t>Greater than or equal 1</t>
+  </si>
+  <si>
+    <t>Less than 1</t>
+  </si>
+  <si>
+    <t>TypeId</t>
+  </si>
+  <si>
+    <t>AvailableRoomCount</t>
+  </si>
+  <si>
+    <t>Less than 0</t>
+  </si>
+  <si>
+    <t>Greater than or equal 0</t>
+  </si>
+  <si>
+    <t>A1 B1 C1 D1 E1</t>
+  </si>
+  <si>
+    <t>A2 B2 C2 D2 E2</t>
+  </si>
+  <si>
+    <t>A2 B3 C3 D2 E2</t>
+  </si>
+  <si>
+    <t>Test Case 14</t>
+  </si>
+  <si>
+    <t>Test Case 15</t>
+  </si>
+  <si>
+    <t>Test Case 16</t>
+  </si>
+  <si>
+    <t>TypeIdError</t>
+  </si>
+  <si>
+    <t>The Type field is required.</t>
+  </si>
+  <si>
+    <t>AvailableRoomCountError</t>
+  </si>
+  <si>
+    <t>The Available Rooms field is required.</t>
+  </si>
+  <si>
+    <t>Please enter a value greater than or equal to 0.</t>
   </si>
 </sst>
 </file>
@@ -778,7 +902,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1164,13 +1288,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1261,6 +1646,72 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1280,6 +1731,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1601,10 +2070,10 @@
       <c r="G1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -1625,10 +2094,10 @@
       <c r="G2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1649,10 +2118,10 @@
       <c r="G3" s="24">
         <v>1</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="42"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -1673,10 +2142,10 @@
       <c r="G4" s="25">
         <v>2</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="38"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1697,10 +2166,10 @@
       <c r="G5" s="25">
         <v>3</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -1717,10 +2186,10 @@
       <c r="G6" s="26">
         <v>4</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1737,10 +2206,10 @@
       <c r="G7" s="25">
         <v>5</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -2161,12 +2630,141 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" customWidth="1"/>
+    <col min="10" max="10" width="40.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2646,10 +3244,10 @@
       <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -2667,10 +3265,10 @@
       <c r="F2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="40"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2688,10 +3286,10 @@
       <c r="F3" s="24">
         <v>1</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" s="42"/>
+      <c r="G3" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -2707,10 +3305,10 @@
       <c r="F4" s="25">
         <v>2</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="H4" s="38"/>
+      <c r="G4" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -2728,10 +3326,10 @@
       <c r="F5" s="25">
         <v>3</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="H5" s="38"/>
+      <c r="G5" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -2759,7 +3357,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="19">
         <v>0</v>
@@ -2870,7 +3468,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>43</v>
@@ -2898,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection sqref="A1:P4"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,7 +3553,7 @@
         <v>193</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>194</v>
@@ -2963,7 +3561,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>195</v>
@@ -2989,7 +3587,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>164</v>
@@ -3023,13 +3621,13 @@
       <c r="O3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>205</v>
+      <c r="P3" s="37" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>151</v>
@@ -3110,14 +3708,14 @@
       <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="35">
         <v>0</v>
@@ -3128,14 +3726,14 @@
       <c r="E2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="35">
         <v>0</v>
@@ -3146,10 +3744,10 @@
       <c r="E3" s="24">
         <v>1</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="42"/>
+      <c r="F3" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -3157,10 +3755,10 @@
       <c r="E4" s="25">
         <v>2</v>
       </c>
-      <c r="F4" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="G4" s="38"/>
+      <c r="F4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -3175,7 +3773,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>27</v>
@@ -3186,7 +3784,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>30</v>
@@ -3210,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,31 +3824,31 @@
         <v>70</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>203</v>
@@ -3262,15 +3860,15 @@
         <v>203</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -3287,4 +3885,524 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="67"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="36">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="F2" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="52">
+        <v>1</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="68"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="F4" s="53">
+        <v>2</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="65"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="47">
+        <v>0</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="F5" s="55">
+        <v>3</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" s="70"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="43"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="43"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="8" max="16" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="67"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="38">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="F2" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="52">
+        <v>1</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="68"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="52">
+        <v>2</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="68"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="F5" s="52">
+        <v>3</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="65"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="47">
+        <v>0</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="57"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="54"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CarePoint/Testing/Testing.xlsx
+++ b/CarePoint/Testing/Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp TR" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="263">
   <si>
     <t>Characteristcs</t>
   </si>
@@ -691,9 +691,6 @@
   </si>
   <si>
     <t>help</t>
-  </si>
-  <si>
-    <t>please fill What's Wrong field</t>
   </si>
   <si>
     <t>select at least one option</t>
@@ -2634,7 +2631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2653,28 +2650,28 @@
         <v>70</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="D1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>214</v>
@@ -2682,29 +2679,29 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>109</v>
@@ -2718,13 +2715,13 @@
         <v>195</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>142</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>109</v>
@@ -2732,7 +2729,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>114</v>
@@ -3561,7 +3558,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>195</v>
@@ -3587,7 +3584,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>164</v>
@@ -3622,12 +3619,12 @@
         <v>109</v>
       </c>
       <c r="P3" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>151</v>
@@ -3808,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3844,12 +3841,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>203</v>
       </c>
@@ -3860,12 +3855,12 @@
         <v>203</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>220</v>
@@ -3923,7 +3918,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="36">
         <v>0</v>
@@ -3942,41 +3937,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>136</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F3" s="52">
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" s="19">
         <v>0</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" s="43"/>
       <c r="F4" s="53">
         <v>2</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H4" s="65"/>
     </row>
@@ -3995,7 +3990,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H5" s="70"/>
     </row>
@@ -4019,7 +4014,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>27</v>
@@ -4031,7 +4026,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>30</v>
@@ -4045,7 +4040,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>35</v>
@@ -4100,22 +4095,22 @@
         <v>70</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>214</v>
@@ -4123,25 +4118,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>109</v>
@@ -4155,7 +4150,7 @@
         <v>195</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>109</v>
@@ -4163,7 +4158,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>114</v>
@@ -4223,7 +4218,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="38">
         <v>0</v>
@@ -4242,49 +4237,49 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>136</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F3" s="52">
         <v>1</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>251</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>252</v>
       </c>
       <c r="F4" s="52">
         <v>2</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="19">
         <v>0</v>
@@ -4297,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H5" s="65"/>
     </row>
@@ -4333,7 +4328,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>27</v>
@@ -4345,7 +4340,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>30</v>
@@ -4359,7 +4354,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>35</v>
@@ -4373,7 +4368,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>36</v>

--- a/CarePoint/Testing/Testing.xlsx
+++ b/CarePoint/Testing/Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp TR" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="267">
   <si>
     <t>Characteristcs</t>
   </si>
@@ -54,24 +54,9 @@
     <t>Last Name Length</t>
   </si>
   <si>
-    <t>Phone Number Length</t>
-  </si>
-  <si>
     <t>Greater than 11</t>
   </si>
   <si>
-    <t>Phone Number Exists</t>
-  </si>
-  <si>
-    <t>Valid Email</t>
-  </si>
-  <si>
-    <t>Valid Birthdate</t>
-  </si>
-  <si>
-    <t>Email Exists</t>
-  </si>
-  <si>
     <t>National Id Photo</t>
   </si>
   <si>
@@ -102,9 +87,6 @@
     <t>Conatins @ but not .</t>
   </si>
   <si>
-    <t>Contains @ and .</t>
-  </si>
-  <si>
     <t>Password Length</t>
   </si>
   <si>
@@ -201,9 +183,6 @@
     <t>L2</t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
@@ -228,12 +207,6 @@
     <t>N2</t>
   </si>
   <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
     <t>Criteria</t>
   </si>
   <si>
@@ -381,9 +354,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>012345678912</t>
-  </si>
-  <si>
     <t>Phone must contain 11 numbers only!</t>
   </si>
   <si>
@@ -429,12 +399,6 @@
     <t>D4</t>
   </si>
   <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
     <t>Each Choice Coverage</t>
   </si>
   <si>
@@ -444,9 +408,6 @@
     <t>From 1 to 2</t>
   </si>
   <si>
-    <t>L3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The Last Name must be at least 2 characters long. </t>
   </si>
   <si>
@@ -495,24 +456,6 @@
     <t>NationalId Exists</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>A1 B1 C1 D1 E1 F1 G1 H1 I1 J1 K1 L1 M1 N2 O1 P1</t>
-  </si>
-  <si>
-    <t>A2 B2 C2 D2 E1 F1 G2 H2 I2 J2 K2 L2 M2 N1 O1 P1</t>
-  </si>
-  <si>
-    <t>A3 B3 C3 D3 E2 F2 G3 H3 I2 J3 K2 L3 M3 N2 O2 P2</t>
-  </si>
-  <si>
-    <t>A3 B3 C3 D3 E1 F1 G3 H3 I2 J3 K2 L3 M3 N2 O2 P1</t>
-  </si>
-  <si>
     <t>11111111111111</t>
   </si>
   <si>
@@ -549,9 +492,6 @@
     <t>Test Case 5</t>
   </si>
   <si>
-    <t>A4 B4 C4 D4 E1 F1 G3 H3 I1 J4 K2 L3 M4 N2 O1 P1</t>
-  </si>
-  <si>
     <t>Email Already Exist.</t>
   </si>
   <si>
@@ -817,6 +757,78 @@
   </si>
   <si>
     <t>Please enter a value greater than or equal to 0.</t>
+  </si>
+  <si>
+    <t>doesn't contain neither @ nor .</t>
+  </si>
+  <si>
+    <t>11 &amp; Exists</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>11 &amp; Not Exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains @ and . But not exists </t>
+  </si>
+  <si>
+    <t>Contains @ and . And Exists</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>A1 B1 C1 D1 E1 F1 G1 H1 I1 J1 K1 L1 M1 N1</t>
+  </si>
+  <si>
+    <t>14 &amp; Exists</t>
+  </si>
+  <si>
+    <t>14 &amp; Not Exists</t>
+  </si>
+  <si>
+    <t>A3 B3 C3 D3 E3 F3 G2 H3 I2 J3 K3 L2 M2 N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4 B4 C4 D4 E4 F3 G2 H4 I2 J3 K4 L2 M2 N2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4 B4 C4 D5 E5 F3 G2 H5 I2 J3 K4 L2 M2 N2 </t>
+  </si>
+  <si>
+    <t>A2 B2 C2 D2 E2 F2 G2 H2 I2 J2 K2 L2 M2 N2</t>
+  </si>
+  <si>
+    <t>01271122945</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -899,7 +911,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1546,13 +1558,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1709,6 +1734,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1746,6 +1777,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2030,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A1:I35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2041,14 +2075,14 @@
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2062,17 +2096,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="58"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
@@ -2085,18 +2115,12 @@
       <c r="D2" s="8">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
@@ -2109,18 +2133,12 @@
       <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="24">
-        <v>1</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="64"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2133,267 +2151,273 @@
       <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="25">
-        <v>2</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B5" s="19">
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="8">
+        <v>116</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="25">
-        <v>3</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="60"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="19" t="b">
+      <c r="D8" s="9"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="32">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="30"/>
-      <c r="G6" s="26">
-        <v>4</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="I6" s="60"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="C9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="30"/>
-      <c r="G7" s="25">
-        <v>5</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="60"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="32">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="8">
-        <v>14</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>136</v>
+      <c r="B12" s="19">
+        <v>0</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="8">
+        <v>6</v>
+      </c>
+      <c r="E12" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="8">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="19">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="8">
-        <v>6</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>30</v>
@@ -2404,223 +2428,246 @@
       <c r="D21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>14</v>
+      <c r="E27" s="58"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="E30" s="58"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="B34" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="60"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="31"/>
+      <c r="C35" s="64"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>1</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" s="66"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>2</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="62"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
+        <v>3</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="62"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="26">
+        <v>4</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="62"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26">
+        <v>5</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2647,108 +2694,108 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2760,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:S6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2780,144 +2827,144 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="S1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -2926,58 +2973,58 @@
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="P3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3">
@@ -2985,51 +3032,51 @@
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="Z3" s="3">
         <v>123</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="L4" s="3">
         <v>15</v>
@@ -3042,13 +3089,13 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3">
@@ -3056,46 +3103,44 @@
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>118</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3">
@@ -3109,58 +3154,60 @@
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
+      <c r="AB5" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="L6" s="3">
         <v>15</v>
       </c>
@@ -3172,31 +3219,33 @@
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q6" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="R6" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC6" s="3"/>
     </row>
@@ -3204,7 +3253,7 @@
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1"/>
     <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="J6" r:id="rId3"/>
+    <hyperlink ref="J6" r:id="rId3" display="aaa@aaa.aaa"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3239,16 +3288,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="58"/>
+        <v>59</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B2" s="23">
         <v>0</v>
@@ -3257,19 +3306,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="62"/>
+        <v>61</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B3" s="23">
         <v>0</v>
@@ -3278,19 +3327,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="F3" s="24">
         <v>1</v>
       </c>
-      <c r="G3" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="H3" s="64"/>
+      <c r="G3" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B4" s="19" t="b">
         <v>0</v>
@@ -3302,14 +3351,14 @@
       <c r="F4" s="25">
         <v>2</v>
       </c>
-      <c r="G4" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" s="60"/>
+      <c r="G4" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B5" s="19">
         <v>0</v>
@@ -3318,19 +3367,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="F5" s="25">
         <v>3</v>
       </c>
-      <c r="G5" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" s="60"/>
+      <c r="G5" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B6" s="19" t="b">
         <v>0</v>
@@ -3342,19 +3391,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B7" s="19">
         <v>0</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B8" s="19">
         <v>0</v>
@@ -3363,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3387,94 +3436,94 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3508,72 +3557,72 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -3584,89 +3633,89 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P3" s="37" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P4" s="3"/>
     </row>
@@ -3703,48 +3752,48 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="58"/>
+        <v>59</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B2" s="35">
         <v>0</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="62"/>
+        <v>61</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B3" s="35">
         <v>0</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E3" s="24">
         <v>1</v>
       </c>
-      <c r="F3" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" s="64"/>
+      <c r="F3" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="66"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -3752,10 +3801,10 @@
       <c r="E4" s="25">
         <v>2</v>
       </c>
-      <c r="F4" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" s="60"/>
+      <c r="F4" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -3770,24 +3819,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3805,7 +3854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3818,62 +3867,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -3909,90 +3958,90 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="67"/>
+        <v>59</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B2" s="36">
         <v>0</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D2" s="43"/>
       <c r="F2" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="62"/>
+        <v>61</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F3" s="52">
         <v>1</v>
       </c>
-      <c r="G3" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="H3" s="68"/>
+      <c r="G3" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B4" s="19">
         <v>0</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D4" s="43"/>
       <c r="F4" s="53">
         <v>2</v>
       </c>
-      <c r="G4" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" s="65"/>
+      <c r="G4" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B5" s="47">
         <v>0</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="49"/>
       <c r="F5" s="55">
         <v>3</v>
       </c>
-      <c r="G5" s="69" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="70"/>
+      <c r="G5" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -4014,51 +4063,51 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" s="49"/>
     </row>
@@ -4092,88 +4141,88 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4209,102 +4258,102 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="67"/>
+        <v>59</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B2" s="38">
         <v>0</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D2" s="54"/>
       <c r="F2" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="62"/>
+        <v>61</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F3" s="52">
         <v>1</v>
       </c>
-      <c r="G3" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" s="68"/>
+      <c r="G3" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F4" s="52">
         <v>2</v>
       </c>
-      <c r="G4" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="68"/>
+      <c r="G4" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B5" s="19">
         <v>0</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D5" s="54"/>
       <c r="F5" s="52">
         <v>3</v>
       </c>
-      <c r="G5" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="65"/>
+      <c r="G5" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B6" s="47">
         <v>0</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -4328,65 +4377,65 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D12" s="54"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D13" s="57"/>
     </row>
